--- a/fig02_orbitsize/bigEye_data.xlsx
+++ b/fig02_orbitsize/bigEye_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciver/animallab/trunk/papers/bigeye/figs/fig02_orbitsize/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="7980" yWindow="460" windowWidth="33040" windowHeight="26140"/>
   </bookViews>
   <sheets>
     <sheet name="TF &amp; ST" sheetId="3" r:id="rId1"/>
@@ -12,7 +17,12 @@
     <sheet name="Analysis" sheetId="2" r:id="rId3"/>
     <sheet name="Averaged" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -533,7 +543,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="403">
   <si>
     <t>Tetrapodomorph Fish</t>
   </si>
@@ -1375,33 +1385,12 @@
     <t>Key</t>
   </si>
   <si>
-    <t>TF width (log)</t>
-  </si>
-  <si>
-    <t>TF eye (log)</t>
-  </si>
-  <si>
-    <t>ST width (log)</t>
-  </si>
-  <si>
-    <t>ST eye (log)</t>
-  </si>
-  <si>
-    <t>Amphib</t>
-  </si>
-  <si>
-    <t>TF+ST</t>
-  </si>
-  <si>
     <t>View (D, L) - dorsal view, lateral view</t>
   </si>
   <si>
     <t>AP- Left - maximal extent of left eye in axis parallel to rostrocaudal axis</t>
   </si>
   <si>
-    <t>b (=slope(y,x))</t>
-  </si>
-  <si>
     <t>AP - Right - ditto, but for right eye</t>
   </si>
   <si>
@@ -1426,9 +1415,6 @@
     <t>XX-src - file name in /measurements from which number is obtained, where the prefix is first four letters of first author's last name, last 2 digits of century, and a sequence letter that is "a" unless there is a collision due to more than one publication by same first author in that year</t>
   </si>
   <si>
-    <t>Combo</t>
-  </si>
-  <si>
     <t>Genus</t>
   </si>
   <si>
@@ -1763,6 +1749,9 @@
   </si>
   <si>
     <t>Primarily or completely terrestrial</t>
+  </si>
+  <si>
+    <t>Whatcheeriidae: clade is Tetrapodomorpha according to https://en.wikipedia.org/wiki/Whatcheeriidae</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1953,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1975,7 +1964,7 @@
       </right>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2077,7 +2066,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2097,7 +2086,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2142,7 +2131,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -6290,12 +6279,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -6325,12 +6314,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -6536,611 +6525,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI155"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102:E124"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="91" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="91"/>
-    <col min="3" max="3" width="5.42578125" style="91" customWidth="1"/>
-    <col min="4" max="16384" width="17.140625" style="91"/>
+    <col min="1" max="1" width="21.1640625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="91"/>
+    <col min="3" max="3" width="5.5" style="91" customWidth="1"/>
+    <col min="4" max="16384" width="17.1640625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="91" t="s">
+    <row r="3" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M3" s="92"/>
+    </row>
+    <row r="4" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="91" t="s">
+    </row>
+    <row r="5" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="91" t="s">
+    </row>
+    <row r="6" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="G3" s="91" t="s">
+    </row>
+    <row r="7" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="J3" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="K3" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="91" t="s">
+    </row>
+    <row r="8" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="M3" s="92" t="s">
+    </row>
+    <row r="9" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="91" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
+    <row r="10" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="91">
-        <v>1.7583819417746753</v>
-      </c>
-      <c r="E4" s="91">
-        <v>1.1439511164239635</v>
-      </c>
-      <c r="F4" s="91">
-        <v>2.1089031276673134</v>
-      </c>
-      <c r="G4" s="91">
-        <v>1.4983105537896004</v>
-      </c>
-      <c r="I4" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="91">
-        <f>COUNT(D4:D15)</f>
-        <v>12</v>
-      </c>
-      <c r="K4" s="91">
-        <f>COUNT(F4:F14)</f>
-        <v>11</v>
-      </c>
-      <c r="M4" s="91">
-        <f>COUNT(D4:D15,F4:F14)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+    </row>
+    <row r="11" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="91">
-        <v>1.6487502126980194</v>
-      </c>
-      <c r="E5" s="91">
-        <v>0.82412583391654892</v>
-      </c>
-      <c r="F5" s="91">
-        <v>2.1172712956557644</v>
-      </c>
-      <c r="G5" s="91">
-        <v>1.4623979978989561</v>
-      </c>
-      <c r="I5" s="91" t="s">
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="96"/>
+    </row>
+    <row r="12" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="J5" s="91">
-        <f>D17</f>
-        <v>0.71726722879044058</v>
-      </c>
-      <c r="K5" s="91">
-        <f>F17</f>
-        <v>1.1424323301928314</v>
-      </c>
-      <c r="L5" s="91">
-        <f>H17</f>
-        <v>0.95392040532073863</v>
-      </c>
-      <c r="M5" s="91">
-        <f>E17</f>
-        <v>0.87798337000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="96"/>
+    </row>
+    <row r="13" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="96"/>
+    </row>
+    <row r="14" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="91">
-        <v>1.999130541287371</v>
-      </c>
-      <c r="E6" s="91">
-        <v>1.1818435879447726</v>
-      </c>
-      <c r="F6" s="91">
-        <v>2.0476641946015599</v>
-      </c>
-      <c r="G6" s="91">
-        <v>1.320146286111054</v>
-      </c>
-      <c r="I6" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="91">
-        <f>STEYX(E4:E15,D4:D15)</f>
-        <v>0.10819872744142175</v>
-      </c>
-      <c r="K6" s="91">
-        <f>STEYX(G4:G14,F4:F14)</f>
-        <v>0.17043912340394859</v>
-      </c>
-      <c r="M6" s="91">
-        <f>STEYX(E102:E124,D102:D124)</f>
-        <v>0.18506405660305561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="96"/>
+    </row>
+    <row r="16" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="92"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+    </row>
+    <row r="17" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="99"/>
+    </row>
+    <row r="18" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="100"/>
+    </row>
+    <row r="19" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="N19" s="90"/>
+    </row>
+    <row r="20" spans="1:35" ht="46" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="91">
-        <v>1.7024305364455252</v>
-      </c>
-      <c r="E7" s="91">
-        <v>0.93951925261861846</v>
-      </c>
-      <c r="F7" s="91">
-        <v>2.0542299098633974</v>
-      </c>
-      <c r="G7" s="91">
-        <v>1.3862313505795252</v>
-      </c>
-      <c r="I7" s="91" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="91">
-        <f>STDEV(D4:D15)</f>
-        <v>0.38713095631849859</v>
-      </c>
-      <c r="K7" s="91">
-        <f>STDEV(F4:F14)</f>
-        <v>0.27357353007732738</v>
-      </c>
-      <c r="M7" s="91">
-        <f>STDEV(D102:D124)</f>
-        <v>0.33669208366657605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+      <c r="B20" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="91">
-        <v>2.6009728956867484</v>
-      </c>
-      <c r="E8" s="91">
-        <v>1.5563025007672873</v>
-      </c>
-      <c r="F8" s="91">
-        <v>1.8195439355418688</v>
-      </c>
-      <c r="G8" s="91">
-        <v>1.0128372247051722</v>
-      </c>
-      <c r="I8" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="J8" s="91">
-        <f>J6/(J7*SQRT(J4-1))</f>
-        <v>8.4269013521167446E-2</v>
-      </c>
-      <c r="K8" s="91">
-        <f>K6/(K7*SQRT(K4-1))</f>
-        <v>0.19701315116511567</v>
-      </c>
-      <c r="L8" s="91" t="e">
-        <f>L6/(L7*SQRT(L4-1))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M8" s="91">
-        <f>M6/(M7*SQRT(M4-1))</f>
-        <v>0.11718656705489844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="C20" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="91">
-        <v>2.851667982658622</v>
-      </c>
-      <c r="E9" s="91">
-        <v>1.8061799739838871</v>
-      </c>
-      <c r="F9" s="91">
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="G9" s="91">
-        <v>0.94448267215016868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+      <c r="D20" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="91">
-        <v>1.8050248444298052</v>
-      </c>
-      <c r="E10" s="91">
-        <v>1.0851121132668373</v>
-      </c>
-      <c r="F10" s="91">
-        <v>1.5397032389478256</v>
-      </c>
-      <c r="G10" s="91">
-        <v>0.94914595241994382</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94">
-        <f>((J4-2)*J6^2+(K4-2)*K6^2)/(J4+K4-4)</f>
-        <v>1.9921847330515184E-2</v>
-      </c>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94">
-        <f>((L4-2)*L6^2+(M4-2)*M6^2)/(L4+M4-4)</f>
-        <v>3.7853831893366226E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="E20" s="103" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="91">
-        <v>1.7311050512159205</v>
-      </c>
-      <c r="E11" s="91">
-        <v>1.0443437348951072</v>
-      </c>
-      <c r="F11" s="91">
-        <v>2.2059347936846816</v>
-      </c>
-      <c r="G11" s="91">
-        <v>1.7646617324292897</v>
-      </c>
-      <c r="I11" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="95">
-        <f>SQRT(J8^2+K8^2)</f>
-        <v>0.21427890323557153</v>
-      </c>
-      <c r="K11" s="96">
-        <f>SQRT(K10)*SQRT(1/(J7^2*(J4-1))+1/(K7^2*(K4-1)))</f>
-        <v>0.19672991535004791</v>
-      </c>
-      <c r="L11" s="95" t="e">
-        <f>SQRT(L8^2+M8^2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M11" s="96" t="e">
-        <f>SQRT(M10)*SQRT(1/(L7^2*(L4-1))+1/(M7^2*(M4-1)))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="F20" s="103" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="91">
-        <v>2.2998558147042671</v>
-      </c>
-      <c r="E12" s="91">
-        <v>1.3738311450738303</v>
-      </c>
-      <c r="F12" s="91">
-        <v>2.1055101847699742</v>
-      </c>
-      <c r="G12" s="91">
-        <v>1.7634279935629373</v>
-      </c>
-      <c r="I12" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" s="95">
-        <f>(J5-K5)/(J11)</f>
-        <v>-1.984166873091457</v>
-      </c>
-      <c r="K12" s="96">
-        <f>(J5-K5)/K11</f>
-        <v>-2.1611614107894104</v>
-      </c>
-      <c r="L12" s="95" t="e">
-        <f>(L5-M5)/(L11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M12" s="96" t="e">
-        <f>(L5-M5)/M11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="91">
-        <v>2.3344336444594807</v>
-      </c>
-      <c r="E13" s="91">
-        <v>1.3399480616943509</v>
-      </c>
-      <c r="F13" s="91">
-        <v>2.2889196056617265</v>
-      </c>
-      <c r="G13" s="91">
-        <v>1.7615519885641819</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" s="95">
-        <f>(J4+K4-4)</f>
-        <v>19</v>
-      </c>
-      <c r="K13" s="96">
-        <f>J4+K4-4</f>
-        <v>19</v>
-      </c>
-      <c r="L13" s="95">
-        <f>(L4+M4-4)</f>
-        <v>19</v>
-      </c>
-      <c r="M13" s="96">
-        <f>L4+M4-4</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="91">
-        <v>2.2438562328065057</v>
-      </c>
-      <c r="E14" s="91">
-        <v>1.3617278360175928</v>
-      </c>
-      <c r="F14" s="91">
-        <v>1.7024305364455252</v>
-      </c>
-      <c r="G14" s="91">
-        <v>1.4345689040341987</v>
-      </c>
-      <c r="I14" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="J14" s="95">
-        <v>0.05</v>
-      </c>
-      <c r="K14" s="96">
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="95">
-        <v>0.05</v>
-      </c>
-      <c r="M14" s="96">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="G20" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="91">
-        <v>2.0029000686113876</v>
-      </c>
-      <c r="E15" s="91">
-        <v>1.4673120629805521</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" s="95">
-        <f>TDIST(ABS(J12),J13,2)</f>
-        <v>6.1872870605258166E-2</v>
-      </c>
-      <c r="K15" s="96">
-        <f>TDIST(ABS(K12),K13,2)</f>
-        <v>4.3658792613476695E-2</v>
-      </c>
-      <c r="L15" s="95" t="e">
-        <f>TDIST(ABS(L12),L13,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M15" s="96" t="e">
-        <f>TDIST(ABS(M12),M13,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="92" t="s">
+      <c r="H20" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="I16" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="J16" s="95">
-        <f>TINV(J14,J13)</f>
-        <v>2.0930240544083096</v>
-      </c>
-      <c r="K16" s="96">
-        <f>TINV(K14,K13)</f>
-        <v>2.0930240544083096</v>
-      </c>
-      <c r="L16" s="95">
-        <f>TINV(L14,L13)</f>
-        <v>2.0930240544083096</v>
-      </c>
-      <c r="M16" s="96">
-        <f>TINV(M14,M13)</f>
-        <v>2.0930240544083096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="91">
-        <v>0.71726722879044058</v>
-      </c>
-      <c r="E17" s="97">
-        <v>0.87798337000000004</v>
-      </c>
-      <c r="F17" s="91">
-        <v>1.1424323301928314</v>
-      </c>
-      <c r="H17" s="91">
-        <v>0.95392040532073863</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="98" t="str">
-        <f>IF(J15&lt;J14,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="K17" s="99" t="str">
-        <f>IF(K15&lt;K14,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-      <c r="L17" s="98" t="e">
-        <f>IF(L15&lt;L14,"Yes","No")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M17" s="99" t="e">
-        <f>IF(M15&lt;M14,"Yes","No")</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="91">
-        <v>-0.23267243834572504</v>
-      </c>
-      <c r="E18" s="100">
-        <v>-0.45028822000000002</v>
-      </c>
-      <c r="F18" s="91">
-        <v>-0.83882702808284937</v>
-      </c>
-      <c r="H18" s="91">
-        <v>-0.4840545355133411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="N19" s="90"/>
-    </row>
-    <row r="20" spans="1:35" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="101" t="s">
+      <c r="I20" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="J20" s="103" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="K20" s="103" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="L20" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="M20" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="N20" s="103" t="s">
         <v>303</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="O20" s="103" t="s">
         <v>304</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="P20" s="103" t="s">
         <v>305</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="Q20" s="103" t="s">
         <v>306</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="R20" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="K20" s="103" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="M20" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="N20" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="O20" s="103" t="s">
-        <v>312</v>
-      </c>
-      <c r="P20" s="103" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="R20" s="103" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="104" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="105"/>
       <c r="C21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q21" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="R21" s="104" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="106" t="s">
         <v>7</v>
       </c>
@@ -7148,16 +6761,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E22" s="109">
         <v>409</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
@@ -7172,7 +6785,7 @@
       <c r="Q22" s="110"/>
       <c r="R22" s="110"/>
     </row>
-    <row r="23" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="111" t="s">
         <v>12</v>
       </c>
@@ -7187,7 +6800,7 @@
         <v>400</v>
       </c>
       <c r="F23" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G23" s="113" t="s">
         <v>6</v>
@@ -7226,7 +6839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="111" t="s">
         <v>17</v>
       </c>
@@ -7241,7 +6854,7 @@
         <v>353</v>
       </c>
       <c r="F24" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G24" s="113" t="s">
         <v>6</v>
@@ -7280,61 +6893,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="111" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B25" s="111"/>
       <c r="C25" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E25" s="114" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N25" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P25" s="112" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="R25" s="113" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="115" t="s">
         <v>18</v>
       </c>
@@ -7342,16 +6955,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E26" s="112">
         <v>337</v>
       </c>
       <c r="F26" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G26" s="113">
         <v>13.33</v>
@@ -7392,7 +7005,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="115" t="s">
         <v>18</v>
       </c>
@@ -7400,16 +7013,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E27" s="112">
         <v>337</v>
       </c>
       <c r="F27" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G27" s="113">
         <v>11.6</v>
@@ -7450,7 +7063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="115" t="s">
         <v>31</v>
       </c>
@@ -7458,16 +7071,16 @@
         <v>32</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E28" s="112">
         <v>384</v>
       </c>
       <c r="F28" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G28" s="113" t="s">
         <v>6</v>
@@ -7508,7 +7121,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="115" t="s">
         <v>31</v>
       </c>
@@ -7516,16 +7129,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E29" s="112">
         <v>384</v>
       </c>
       <c r="F29" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G29" s="113" t="s">
         <v>6</v>
@@ -7566,7 +7179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="111" t="s">
         <v>34</v>
       </c>
@@ -7581,7 +7194,7 @@
         <v>391</v>
       </c>
       <c r="F30" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G30" s="113" t="s">
         <v>6</v>
@@ -7620,22 +7233,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="111"/>
       <c r="C31" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E31" s="112">
         <v>389</v>
       </c>
       <c r="F31" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G31" s="113" t="s">
         <v>6</v>
@@ -7676,7 +7289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="111" t="s">
         <v>36</v>
       </c>
@@ -7691,7 +7304,7 @@
         <v>364</v>
       </c>
       <c r="F32" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G32" s="113" t="s">
         <v>6</v>
@@ -7730,7 +7343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="111" t="s">
         <v>48</v>
       </c>
@@ -7745,7 +7358,7 @@
         <v>298</v>
       </c>
       <c r="F33" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G33" s="113" t="s">
         <v>6</v>
@@ -7784,61 +7397,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="111" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B34" s="111"/>
       <c r="C34" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E34" s="114">
         <v>337</v>
       </c>
       <c r="F34" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J34" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N34" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P34" s="112" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q34" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="R34" s="113" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="115" t="s">
         <v>44</v>
       </c>
@@ -7846,16 +7459,16 @@
         <v>45</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E35" s="112">
         <v>337</v>
       </c>
       <c r="F35" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G35" s="113">
         <v>15.2</v>
@@ -7896,7 +7509,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="111" t="s">
         <v>50</v>
       </c>
@@ -7911,7 +7524,7 @@
         <v>337</v>
       </c>
       <c r="F36" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G36" s="113" t="s">
         <v>6</v>
@@ -7950,7 +7563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="111" t="s">
         <v>69</v>
       </c>
@@ -7965,7 +7578,7 @@
         <v>384</v>
       </c>
       <c r="F37" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G37" s="113" t="s">
         <v>6</v>
@@ -8004,61 +7617,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="111" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B38" s="111"/>
       <c r="C38" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E38" s="114" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J38" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N38" s="91" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P38" s="112" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q38" s="113" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="R38" s="113" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="115" t="s">
         <v>71</v>
       </c>
@@ -8066,16 +7679,16 @@
         <v>236</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E39" s="112">
         <v>387</v>
       </c>
       <c r="F39" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G39" s="113">
         <v>7.6</v>
@@ -8116,7 +7729,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="115" t="s">
         <v>71</v>
       </c>
@@ -8124,16 +7737,16 @@
         <v>236</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E40" s="112">
         <v>387</v>
       </c>
       <c r="F40" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G40" s="113" t="s">
         <v>6</v>
@@ -8174,7 +7787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="115" t="s">
         <v>77</v>
       </c>
@@ -8182,16 +7795,16 @@
         <v>78</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E41" s="112">
         <v>387</v>
       </c>
       <c r="F41" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G41" s="113">
         <v>44</v>
@@ -8232,7 +7845,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="115" t="s">
         <v>77</v>
       </c>
@@ -8240,16 +7853,16 @@
         <v>78</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E42" s="112">
         <v>387</v>
       </c>
       <c r="F42" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G42" s="113">
         <v>62.67</v>
@@ -8290,22 +7903,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="116" t="s">
         <v>73</v>
       </c>
       <c r="B43" s="111"/>
       <c r="C43" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E43" s="112">
         <v>387</v>
       </c>
       <c r="F43" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G43" s="113">
         <v>12.33</v>
@@ -8346,22 +7959,22 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="116" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="111"/>
       <c r="C44" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E44" s="112">
         <v>387</v>
       </c>
       <c r="F44" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G44" s="113">
         <v>11.46</v>
@@ -8402,7 +8015,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="111" t="s">
         <v>87</v>
       </c>
@@ -8419,7 +8032,7 @@
         <v>367</v>
       </c>
       <c r="F45" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G45" s="113" t="s">
         <v>6</v>
@@ -8458,7 +8071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="111" t="s">
         <v>87</v>
       </c>
@@ -8475,7 +8088,7 @@
         <v>384</v>
       </c>
       <c r="F46" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G46" s="113" t="s">
         <v>6</v>
@@ -8514,7 +8127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="116" t="s">
         <v>90</v>
       </c>
@@ -8522,16 +8135,16 @@
         <v>91</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E47" s="112">
         <v>385</v>
       </c>
       <c r="F47" s="92" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G47" s="113">
         <v>21.99</v>
@@ -8572,7 +8185,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="116" t="s">
         <v>90</v>
       </c>
@@ -8580,16 +8193,16 @@
         <v>91</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E48" s="112">
         <v>385</v>
       </c>
       <c r="F48" s="92" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G48" s="112">
         <v>28.46</v>
@@ -8630,7 +8243,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="116" t="s">
         <v>94</v>
       </c>
@@ -8638,10 +8251,10 @@
         <v>95</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E49" s="112">
         <v>384</v>
@@ -8679,7 +8292,7 @@
         <v>183.5</v>
       </c>
       <c r="P49" s="112" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q49" s="113">
         <v>165</v>
@@ -8688,7 +8301,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="116" t="s">
         <v>115</v>
       </c>
@@ -8696,16 +8309,16 @@
         <v>116</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E50" s="112">
         <v>362</v>
       </c>
       <c r="F50" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G50" s="113">
         <v>30.44</v>
@@ -8746,7 +8359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="116" t="s">
         <v>115</v>
       </c>
@@ -8754,16 +8367,16 @@
         <v>116</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D51" s="92" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E51" s="112">
         <v>362</v>
       </c>
       <c r="F51" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G51" s="113">
         <v>37.33</v>
@@ -8804,22 +8417,22 @@
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="116" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="111"/>
       <c r="C52" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D52" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E52" s="112">
         <v>362</v>
       </c>
       <c r="F52" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G52" s="113">
         <v>29.33</v>
@@ -8860,7 +8473,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="118" t="s">
         <v>99</v>
       </c>
@@ -8868,17 +8481,17 @@
         <v>100</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D53" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E53" s="112">
         <f>ROUND(AVERAGE(372,359),0)</f>
         <v>366</v>
       </c>
       <c r="F53" s="92" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G53" s="113">
         <v>30.6</v>
@@ -8891,7 +8504,7 @@
         <v>31</v>
       </c>
       <c r="J53" s="92" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K53" s="113">
         <v>84</v>
@@ -8904,22 +8517,22 @@
         <v>167.2</v>
       </c>
       <c r="N53" s="92" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="O53" s="113">
         <v>263.39999999999998</v>
       </c>
       <c r="P53" s="114" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q53" s="113">
         <v>223.6</v>
       </c>
       <c r="R53" s="114" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="118" t="s">
         <v>23</v>
       </c>
@@ -8927,10 +8540,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E54" s="112">
         <f>ROUND(AVERAGE(388,372),0)</f>
@@ -8978,7 +8591,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="111" t="s">
         <v>106</v>
       </c>
@@ -8986,17 +8599,17 @@
         <v>107</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D55" s="92" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E55" s="112">
         <f>ROUND(AVERAGE(419,393),0)</f>
         <v>406</v>
       </c>
       <c r="F55" s="91" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G55" s="113"/>
       <c r="H55" s="113"/>
@@ -9008,7 +8621,7 @@
       <c r="Q55" s="113"/>
       <c r="R55" s="112"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="118" t="s">
         <v>81</v>
       </c>
@@ -9016,10 +8629,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D56" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E56" s="112">
         <f>ROUND(AVERAGE(383,359),0)</f>
@@ -9067,7 +8680,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="118" t="s">
         <v>27</v>
       </c>
@@ -9075,10 +8688,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D57" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E57" s="112">
         <f>ROUND(AVERAGE(383,359),0)</f>
@@ -9126,7 +8739,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="118" t="s">
         <v>85</v>
       </c>
@@ -9134,10 +8747,10 @@
         <v>86</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D58" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E58" s="112">
         <v>374</v>
@@ -9169,7 +8782,7 @@
         <v>145.18</v>
       </c>
       <c r="N58" s="92" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O58" s="113">
         <v>119.31</v>
@@ -9184,7 +8797,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="118" t="s">
         <v>103</v>
       </c>
@@ -9192,16 +8805,16 @@
         <v>104</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D59" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E59" s="112">
         <v>365</v>
       </c>
       <c r="F59" s="92" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G59" s="113">
         <v>20</v>
@@ -9214,7 +8827,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="J59" s="92" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K59" s="117">
         <v>28.27</v>
@@ -9227,22 +8840,22 @@
         <v>56</v>
       </c>
       <c r="N59" s="92" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="O59" s="113">
         <v>172.4</v>
       </c>
       <c r="P59" s="114" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q59" s="113">
         <v>174.4</v>
       </c>
       <c r="R59" s="114" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="118" t="s">
         <v>29</v>
       </c>
@@ -9250,10 +8863,10 @@
         <v>30</v>
       </c>
       <c r="C60" s="92" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D60" s="92" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E60" s="112">
         <v>359</v>
@@ -9300,7 +8913,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="111" t="s">
         <v>6</v>
       </c>
@@ -9317,61 +8930,61 @@
       <c r="Q61" s="113"/>
       <c r="R61" s="113"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="104" t="s">
         <v>110</v>
       </c>
       <c r="B62" s="105"/>
       <c r="C62" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D62" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E62" s="120" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F62" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J62" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N62" s="104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P62" s="120" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q62" s="121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="R62" s="121" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="122" t="s">
         <v>118</v>
       </c>
@@ -9379,16 +8992,16 @@
         <v>119</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D63" s="107" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E63" s="109">
         <v>365</v>
       </c>
       <c r="F63" s="108" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G63" s="110">
         <v>31.5</v>
@@ -9420,7 +9033,7 @@
         <v>166.5</v>
       </c>
       <c r="P63" s="109" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Q63" s="110">
         <v>138</v>
@@ -9429,7 +9042,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="116" t="s">
         <v>118</v>
       </c>
@@ -9437,16 +9050,16 @@
         <v>119</v>
       </c>
       <c r="C64" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D64" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E64" s="112">
         <v>365</v>
       </c>
       <c r="F64" s="123" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G64" s="113">
         <v>32.5</v>
@@ -9487,7 +9100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="111" t="s">
         <v>121</v>
       </c>
@@ -9502,7 +9115,7 @@
         <v>368</v>
       </c>
       <c r="F65" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G65" s="113" t="s">
         <v>6</v>
@@ -9541,7 +9154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="111" t="s">
         <v>123</v>
       </c>
@@ -9556,7 +9169,7 @@
         <v>368</v>
       </c>
       <c r="F66" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G66" s="113" t="s">
         <v>6</v>
@@ -9595,22 +9208,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="116" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="111"/>
       <c r="C67" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E67" s="112">
         <v>368</v>
       </c>
       <c r="F67" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G67" s="113">
         <v>29.33</v>
@@ -9651,22 +9264,22 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="116" t="s">
         <v>125</v>
       </c>
       <c r="B68" s="111"/>
       <c r="C68" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E68" s="112">
         <v>368</v>
       </c>
       <c r="F68" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G68" s="113" t="s">
         <v>6</v>
@@ -9707,7 +9320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="111" t="s">
         <v>129</v>
       </c>
@@ -9722,7 +9335,7 @@
         <v>362</v>
       </c>
       <c r="F69" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G69" s="113" t="s">
         <v>6</v>
@@ -9761,7 +9374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="111" t="s">
         <v>111</v>
       </c>
@@ -9776,7 +9389,7 @@
         <v>377</v>
       </c>
       <c r="F70" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G70" s="113" t="s">
         <v>6</v>
@@ -9815,7 +9428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="116" t="s">
         <v>144</v>
       </c>
@@ -9823,16 +9436,16 @@
         <v>145</v>
       </c>
       <c r="C71" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D71" s="91" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E71" s="112">
         <v>337</v>
       </c>
       <c r="F71" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G71" s="113">
         <v>22.2</v>
@@ -9873,22 +9486,22 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="116" t="s">
         <v>139</v>
       </c>
       <c r="B72" s="111"/>
       <c r="C72" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E72" s="112">
         <v>321</v>
       </c>
       <c r="F72" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G72" s="113">
         <v>24.67</v>
@@ -9901,7 +9514,7 @@
         <v>24.335000000000001</v>
       </c>
       <c r="J72" s="91" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K72" s="113">
         <v>55.67</v>
@@ -9914,37 +9527,37 @@
         <v>113.30000000000001</v>
       </c>
       <c r="N72" s="91" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="O72" s="113">
         <v>169.67</v>
       </c>
       <c r="P72" s="112" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q72" s="113">
         <v>161.66999999999999</v>
       </c>
       <c r="R72" s="113" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="116" t="s">
         <v>139</v>
       </c>
       <c r="B73" s="111"/>
       <c r="C73" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D73" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E73" s="112">
         <v>321</v>
       </c>
       <c r="F73" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G73" s="113" t="s">
         <v>6</v>
@@ -9957,7 +9570,7 @@
         <v>21.67</v>
       </c>
       <c r="J73" s="91" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K73" s="113" t="s">
         <v>6</v>
@@ -9976,7 +9589,7 @@
         <v>177.33</v>
       </c>
       <c r="P73" s="112" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q73" s="113" t="s">
         <v>6</v>
@@ -9985,7 +9598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="116" t="s">
         <v>134</v>
       </c>
@@ -9993,16 +9606,16 @@
         <v>135</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E74" s="112">
         <v>309</v>
       </c>
       <c r="F74" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G74" s="113">
         <v>11</v>
@@ -10043,7 +9656,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="116" t="s">
         <v>134</v>
       </c>
@@ -10051,16 +9664,16 @@
         <v>135</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E75" s="112">
         <v>309</v>
       </c>
       <c r="F75" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G75" s="113" t="s">
         <v>6</v>
@@ -10101,7 +9714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="116" t="s">
         <v>197</v>
       </c>
@@ -10109,16 +9722,16 @@
         <v>198</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E76" s="112">
         <v>327</v>
       </c>
       <c r="F76" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G76" s="113" t="s">
         <v>6</v>
@@ -10131,7 +9744,7 @@
         <v>2.4</v>
       </c>
       <c r="J76" s="91" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K76" s="113" t="s">
         <v>6</v>
@@ -10150,7 +9763,7 @@
         <v>15.67</v>
       </c>
       <c r="P76" s="112" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q76" s="113" t="s">
         <v>6</v>
@@ -10159,7 +9772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="116" t="s">
         <v>202</v>
       </c>
@@ -10167,16 +9780,16 @@
         <v>203</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D77" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E77" s="112">
         <v>325</v>
       </c>
       <c r="F77" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G77" s="113">
         <v>8.9</v>
@@ -10217,7 +9830,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="116" t="s">
         <v>202</v>
       </c>
@@ -10225,16 +9838,16 @@
         <v>203</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E78" s="112">
         <v>325</v>
       </c>
       <c r="F78" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G78" s="113">
         <v>10.199999999999999</v>
@@ -10275,7 +9888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="116" t="s">
         <v>205</v>
       </c>
@@ -10283,16 +9896,16 @@
         <v>98</v>
       </c>
       <c r="C79" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D79" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E79" s="112">
         <v>314</v>
       </c>
       <c r="F79" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G79" s="113">
         <v>8.7200000000000006</v>
@@ -10333,7 +9946,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="116" t="s">
         <v>205</v>
       </c>
@@ -10341,16 +9954,16 @@
         <v>98</v>
       </c>
       <c r="C80" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D80" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E80" s="112">
         <v>314</v>
       </c>
       <c r="F80" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G80" s="113">
         <v>9.5399999999999991</v>
@@ -10391,22 +10004,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="116" t="s">
         <v>148</v>
       </c>
       <c r="B81" s="111"/>
       <c r="C81" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D81" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E81" s="112">
         <v>330</v>
       </c>
       <c r="F81" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G81" s="113">
         <v>61</v>
@@ -10419,7 +10032,7 @@
         <v>58.164999999999999</v>
       </c>
       <c r="J81" s="91" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K81" s="113">
         <v>81.67</v>
@@ -10432,37 +10045,37 @@
         <v>160.67000000000002</v>
       </c>
       <c r="N81" s="91" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="O81" s="113">
         <v>224</v>
       </c>
       <c r="P81" s="112" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q81" s="113">
         <v>223.5</v>
       </c>
       <c r="R81" s="113" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="116" t="s">
         <v>148</v>
       </c>
       <c r="B82" s="111"/>
       <c r="C82" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D82" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E82" s="112">
         <v>330</v>
       </c>
       <c r="F82" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G82" s="113" t="s">
         <v>6</v>
@@ -10475,7 +10088,7 @@
         <v>61.33</v>
       </c>
       <c r="J82" s="91" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K82" s="113" t="s">
         <v>6</v>
@@ -10494,7 +10107,7 @@
         <v>265</v>
       </c>
       <c r="P82" s="112" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q82" s="113" t="s">
         <v>6</v>
@@ -10503,7 +10116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="116" t="s">
         <v>148</v>
       </c>
@@ -10511,16 +10124,16 @@
         <v>149</v>
       </c>
       <c r="C83" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D83" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E83" s="112">
         <v>330</v>
       </c>
       <c r="F83" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G83" s="113">
         <v>57</v>
@@ -10561,7 +10174,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="111" t="s">
         <v>206</v>
       </c>
@@ -10576,7 +10189,7 @@
         <v>325</v>
       </c>
       <c r="F84" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G84" s="113" t="s">
         <v>6</v>
@@ -10615,7 +10228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="111" t="s">
         <v>209</v>
       </c>
@@ -10632,7 +10245,7 @@
         <v>337</v>
       </c>
       <c r="F85" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G85" s="113" t="s">
         <v>6</v>
@@ -10671,7 +10284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="116" t="s">
         <v>182</v>
       </c>
@@ -10679,16 +10292,16 @@
         <v>183</v>
       </c>
       <c r="C86" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D86" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E86" s="112">
         <v>325</v>
       </c>
       <c r="F86" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G86" s="113">
         <v>59.5</v>
@@ -10729,7 +10342,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="116" t="s">
         <v>182</v>
       </c>
@@ -10737,16 +10350,16 @@
         <v>183</v>
       </c>
       <c r="C87" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D87" s="91" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E87" s="112">
         <v>325</v>
       </c>
       <c r="F87" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G87" s="113" t="s">
         <v>6</v>
@@ -10787,7 +10400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="116" t="s">
         <v>185</v>
       </c>
@@ -10795,16 +10408,16 @@
         <v>186</v>
       </c>
       <c r="C88" s="91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D88" s="91" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E88" s="112">
         <v>314</v>
       </c>
       <c r="F88" s="91" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G88" s="113">
         <v>27.33</v>
@@ -10845,7 +10458,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="111" t="s">
         <v>195</v>
       </c>
@@ -10860,7 +10473,7 @@
         <v>314</v>
       </c>
       <c r="F89" s="92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G89" s="113" t="s">
         <v>6</v>
@@ -10899,7 +10512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="118" t="s">
         <v>137</v>
       </c>
@@ -10907,10 +10520,10 @@
         <v>138</v>
       </c>
       <c r="C90" s="92" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D90" s="92" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E90" s="112">
         <v>340</v>
@@ -10957,214 +10570,74 @@
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="111"/>
       <c r="B91" s="111"/>
     </row>
-    <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="111"/>
       <c r="B92" s="111"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="E94" s="91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="91">
-        <v>1.7583819417746753</v>
-      </c>
-      <c r="E102" s="91">
-        <v>1.1439511164239635</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="91">
-        <v>1.6487502126980194</v>
-      </c>
-      <c r="E103" s="91">
-        <v>0.82412583391654892</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="91">
-        <v>1.999130541287371</v>
-      </c>
-      <c r="E104" s="91">
-        <v>1.1818435879447726</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="91">
-        <v>1.7024305364455252</v>
-      </c>
-      <c r="E105" s="91">
-        <v>0.93951925261861846</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="91">
-        <v>2.6009728956867484</v>
-      </c>
-      <c r="E106" s="91">
-        <v>1.5563025007672873</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="91">
-        <v>2.851667982658622</v>
-      </c>
-      <c r="E107" s="91">
-        <v>1.8061799739838871</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D108" s="91">
-        <v>1.8050248444298052</v>
-      </c>
-      <c r="E108" s="91">
-        <v>1.0851121132668373</v>
-      </c>
-    </row>
-    <row r="109" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D109" s="91">
-        <v>1.7311050512159205</v>
-      </c>
-      <c r="E109" s="91">
-        <v>1.0443437348951072</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D110" s="91">
-        <v>2.2998558147042671</v>
-      </c>
-      <c r="E110" s="91">
-        <v>1.3738311450738303</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D111" s="91">
-        <v>2.3344336444594807</v>
-      </c>
-      <c r="E111" s="91">
-        <v>1.3399480616943509</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D112" s="91">
-        <v>2.2438562328065057</v>
-      </c>
-      <c r="E112" s="91">
-        <v>1.3617278360175928</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D113" s="91">
-        <v>2.0029000686113876</v>
-      </c>
-      <c r="E113" s="91">
-        <v>1.4673120629805521</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="107">
-        <v>2.1089031276673134</v>
-      </c>
-      <c r="E114" s="107">
-        <v>1.4983105537896004</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D115" s="124">
-        <v>2.1172712956557644</v>
-      </c>
-      <c r="E115" s="124">
-        <v>1.4623979978989561</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D116" s="124">
-        <v>2.0476641946015599</v>
-      </c>
-      <c r="E116" s="124">
-        <v>1.320146286111054</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D117" s="124">
-        <v>2.0542299098633974</v>
-      </c>
-      <c r="E117" s="124">
-        <v>1.3862313505795252</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D118" s="124">
-        <v>1.8195439355418688</v>
-      </c>
-      <c r="E118" s="124">
-        <v>1.0128372247051722</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D119" s="124">
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="E119" s="124">
-        <v>0.94448267215016868</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D120" s="124">
-        <v>1.5397032389478256</v>
-      </c>
-      <c r="E120" s="124">
-        <v>0.94914595241994382</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="124">
-        <v>2.2059347936846816</v>
-      </c>
-      <c r="E121" s="124">
-        <v>1.7646617324292897</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D122" s="124">
-        <v>2.1055101847699742</v>
-      </c>
-      <c r="E122" s="124">
-        <v>1.7634279935629373</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="124">
-        <v>2.2889196056617265</v>
-      </c>
-      <c r="E123" s="124">
-        <v>1.7615519885641819</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="124">
-        <v>1.7024305364455252</v>
-      </c>
-      <c r="E124" s="124">
-        <v>1.4345689040341987</v>
-      </c>
-    </row>
-    <row r="136" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="107"/>
+      <c r="E114" s="107"/>
+    </row>
+    <row r="115" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="124"/>
+      <c r="E115" s="124"/>
+    </row>
+    <row r="116" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="124"/>
+      <c r="E116" s="124"/>
+    </row>
+    <row r="117" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="124"/>
+      <c r="E117" s="124"/>
+    </row>
+    <row r="118" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="124"/>
+      <c r="E118" s="124"/>
+    </row>
+    <row r="119" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="124"/>
+      <c r="E119" s="124"/>
+    </row>
+    <row r="120" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
+    </row>
+    <row r="121" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="124"/>
+      <c r="E121" s="124"/>
+    </row>
+    <row r="122" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="124"/>
+      <c r="E122" s="124"/>
+    </row>
+    <row r="123" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
+    </row>
+    <row r="124" spans="4:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
+    </row>
+    <row r="136" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" spans="35:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11177,24 +10650,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="7" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -11203,7 +10678,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -11224,7 +10699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -11253,10 +10728,10 @@
         <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -11283,10 +10758,10 @@
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -11312,24 +10787,24 @@
         <v>11</v>
       </c>
       <c r="K5" s="155" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="145" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C6" s="142" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E6" s="126" t="s">
         <v>16</v>
@@ -11347,21 +10822,21 @@
         <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="145" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D7" s="126" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E7" s="126" t="s">
         <v>16</v>
@@ -11376,24 +10851,24 @@
         <v>11</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="145" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D8" s="126" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E8" s="126" t="s">
         <v>16</v>
@@ -11408,21 +10883,21 @@
         <v>11</v>
       </c>
       <c r="K8" s="147" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D9" s="143" t="s">
         <v>15</v>
@@ -11443,10 +10918,10 @@
         <v>111</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -11454,7 +10929,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>15</v>
@@ -11475,10 +10950,10 @@
         <v>141</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -11504,10 +10979,10 @@
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
         <v>6</v>
       </c>
@@ -11515,7 +10990,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>15</v>
@@ -11533,15 +11008,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="155" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>15</v>
@@ -11559,15 +11034,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C14" s="154" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>15</v>
@@ -11585,15 +11060,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>15</v>
@@ -11611,7 +11086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -11637,7 +11112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -11663,7 +11138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -11689,7 +11164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -11715,7 +11190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -11741,7 +11216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="39" t="s">
         <v>6</v>
       </c>
@@ -11750,7 +11225,7 @@
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="152" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E21" s="152" t="s">
         <v>74</v>
@@ -11765,18 +11240,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="163" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C22" s="154" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D22" s="126" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E22" s="126" t="s">
         <v>74</v>
@@ -11791,18 +11266,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="163" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C23" s="154" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D23" s="126" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E23" s="126" t="s">
         <v>74</v>
@@ -11817,7 +11292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
@@ -11843,7 +11318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -11851,7 +11326,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
@@ -11869,7 +11344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -11893,7 +11368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
@@ -11919,7 +11394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
@@ -11945,7 +11420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -11971,7 +11446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -11997,7 +11472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -12023,7 +11498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -12049,7 +11524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
@@ -12075,7 +11550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
@@ -12083,7 +11558,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>39</v>
@@ -12101,7 +11576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -12127,7 +11602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
@@ -12153,7 +11628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -12179,7 +11654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
@@ -12205,7 +11680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12231,7 +11706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
@@ -12257,7 +11732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
@@ -12283,7 +11758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
@@ -12309,7 +11784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
@@ -12335,7 +11810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -12343,7 +11818,7 @@
         <v>73</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>55</v>
@@ -12361,7 +11836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
@@ -12387,7 +11862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -12413,7 +11888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
@@ -12439,7 +11914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
@@ -12465,7 +11940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>6</v>
       </c>
@@ -12491,7 +11966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>6</v>
       </c>
@@ -12507,7 +11982,7 @@
       <c r="E50" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="152" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="16" t="s">
@@ -12517,7 +11992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -12543,7 +12018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
@@ -12569,7 +12044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -12595,7 +12070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>6</v>
       </c>
@@ -12621,7 +12096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>6</v>
       </c>
@@ -12632,7 +12107,7 @@
         <v>98</v>
       </c>
       <c r="D55" s="130" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>93</v>
@@ -12643,11 +12118,11 @@
       <c r="G55" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="130" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
         <v>6</v>
       </c>
@@ -12659,7 +12134,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -12685,7 +12160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -12711,7 +12186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>6</v>
       </c>
@@ -12727,7 +12202,7 @@
       <c r="E59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="126" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="10" t="s">
@@ -12737,7 +12212,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>6</v>
       </c>
@@ -12749,7 +12224,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>6</v>
       </c>
@@ -12761,7 +12236,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>6</v>
       </c>
@@ -12785,7 +12260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
@@ -12809,15 +12284,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="168" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C64" s="128" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D64" s="127" t="s">
         <v>112</v>
@@ -12835,7 +12310,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>6</v>
       </c>
@@ -12861,7 +12336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>6</v>
       </c>
@@ -12887,15 +12362,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="137" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C67" s="129" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D67" s="127" t="s">
         <v>6</v>
@@ -12913,7 +12388,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
@@ -12939,7 +12414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
@@ -12965,7 +12440,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>6</v>
       </c>
@@ -12988,8 +12463,11 @@
       <c r="H70" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K70" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>6</v>
       </c>
@@ -13015,7 +12493,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -13041,15 +12519,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="141" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C73" s="132" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D73" s="133" t="s">
         <v>6</v>
@@ -13067,7 +12545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="39" t="s">
         <v>6</v>
       </c>
@@ -13093,7 +12571,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>6</v>
       </c>
@@ -13119,7 +12597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>6</v>
       </c>
@@ -13145,7 +12623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>6</v>
       </c>
@@ -13171,15 +12649,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="147" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C78" s="148" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D78" s="126" t="s">
         <v>136</v>
@@ -13197,7 +12675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>6</v>
       </c>
@@ -13223,7 +12701,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
@@ -13249,7 +12727,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>6</v>
       </c>
@@ -13275,7 +12753,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>6</v>
       </c>
@@ -13301,7 +12779,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>6</v>
       </c>
@@ -13327,7 +12805,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>6</v>
       </c>
@@ -13353,7 +12831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>6</v>
       </c>
@@ -13379,7 +12857,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>6</v>
       </c>
@@ -13405,7 +12883,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>6</v>
       </c>
@@ -13431,7 +12909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>6</v>
       </c>
@@ -13457,7 +12935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>6</v>
       </c>
@@ -13483,15 +12961,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="175" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C90" s="142" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D90" s="126" t="s">
         <v>165</v>
@@ -13509,12 +12987,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="145" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C91" s="142" t="s">
         <v>98</v>
@@ -13535,15 +13013,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="175" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C92" s="142" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D92" s="126" t="s">
         <v>165</v>
@@ -13561,15 +13039,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="136" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C93" s="164" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D93" s="131" t="s">
         <v>165</v>
@@ -13587,7 +13065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>6</v>
       </c>
@@ -13613,7 +13091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>6</v>
       </c>
@@ -13639,7 +13117,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>6</v>
       </c>
@@ -13665,7 +13143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>6</v>
       </c>
@@ -13691,7 +13169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>6</v>
       </c>
@@ -13717,7 +13195,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>6</v>
       </c>
@@ -13743,7 +13221,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>6</v>
       </c>
@@ -13769,7 +13247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="39" t="s">
         <v>6</v>
       </c>
@@ -13795,7 +13273,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="39" t="s">
         <v>6</v>
       </c>
@@ -13821,21 +13299,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>6</v>
       </c>
@@ -13849,7 +13327,7 @@
         <v>173</v>
       </c>
       <c r="E105" s="126" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>113</v>
@@ -13861,7 +13339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>6</v>
       </c>
@@ -13875,7 +13353,7 @@
         <v>173</v>
       </c>
       <c r="E106" s="126" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>113</v>
@@ -13887,7 +13365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>6</v>
       </c>
@@ -13901,7 +13379,7 @@
         <v>173</v>
       </c>
       <c r="E107" s="126" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>113</v>
@@ -13913,14 +13391,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="39" t="s">
         <v>6</v>
       </c>
@@ -13929,7 +13407,7 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>6</v>
       </c>
@@ -13955,7 +13433,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>6</v>
       </c>
@@ -13981,7 +13459,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>6</v>
       </c>
@@ -14007,21 +13485,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="20"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B114" s="27"/>
       <c r="C114" s="20"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>6</v>
       </c>
@@ -14047,7 +13525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
@@ -14073,18 +13551,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B117" s="178" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C117" s="148" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D117" s="39" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E117" s="39" t="s">
         <v>155</v>
@@ -14099,18 +13577,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="62" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C118" s="63" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D118" s="126" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E118" s="126" t="s">
         <v>155</v>
@@ -14125,18 +13603,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="62" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C119" s="63" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D119" s="126" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E119" s="126" t="s">
         <v>155</v>
@@ -14151,18 +13629,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D120" s="126" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E120" s="126" t="s">
         <v>155</v>
@@ -14177,18 +13655,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B121" s="177" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D121" s="39" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E121" s="39" t="s">
         <v>155</v>
@@ -14203,18 +13681,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="62" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C122" s="63" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D122" s="39" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E122" s="39" t="s">
         <v>155</v>
@@ -14229,7 +13707,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="39" t="s">
         <v>6</v>
       </c>
@@ -14239,14 +13717,14 @@
       <c r="G123" s="126"/>
       <c r="H123" s="126"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="61"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>6</v>
       </c>
@@ -14257,7 +13735,7 @@
         <v>207</v>
       </c>
       <c r="D125" s="39" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>208</v>
@@ -14272,7 +13750,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>6</v>
       </c>
@@ -14283,7 +13761,7 @@
         <v>210</v>
       </c>
       <c r="D126" s="39" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>208</v>
@@ -14298,40 +13776,40 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G130" s="65" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E131" s="39" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G132" s="39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G133" s="39" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G134" s="39" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G136" s="39" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G137" s="39"/>
     </row>
   </sheetData>
@@ -14350,33 +13828,33 @@
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" style="1"/>
-    <col min="17" max="18" width="3.140625" style="64" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="64" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="8.83203125" style="1"/>
+    <col min="17" max="18" width="3.1640625" style="64" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="8.83203125" style="1"/>
+    <col min="25" max="25" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="32" max="32" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="143" t="s">
         <v>6</v>
       </c>
@@ -14387,7 +13865,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -14441,7 +13919,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -14488,7 +13966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -14533,7 +14011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -14606,7 +14084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -14651,7 +14129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -14722,7 +14200,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
@@ -14788,7 +14266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -14835,7 +14313,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
@@ -14908,7 +14386,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
@@ -14955,7 +14433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>27</v>
       </c>
@@ -15026,7 +14504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="77" t="s">
         <v>29</v>
       </c>
@@ -15097,7 +14575,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>31</v>
       </c>
@@ -15168,7 +14646,7 @@
       </c>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
@@ -15237,12 +14715,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>6</v>
@@ -15284,7 +14762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
         <v>35</v>
       </c>
@@ -15351,7 +14829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>36</v>
       </c>
@@ -15390,7 +14868,7 @@
         <v>0.94448559163918411</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>37</v>
       </c>
@@ -15427,7 +14905,7 @@
         <v>0.28237038416924914</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>40</v>
       </c>
@@ -15464,7 +14942,7 @@
         <v>1.6422832143857791</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
         <v>42</v>
       </c>
@@ -15527,7 +15005,7 @@
         <v>1.4913616938342726</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
         <v>44</v>
       </c>
@@ -15596,7 +15074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
         <v>46</v>
       </c>
@@ -15632,7 +15110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
@@ -15674,7 +15152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>50</v>
       </c>
@@ -15718,7 +15196,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>52</v>
       </c>
@@ -15780,7 +15258,7 @@
         <v>1.2922560713564761</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>53</v>
       </c>
@@ -15825,7 +15303,7 @@
       <c r="AE27" s="70"/>
       <c r="AF27" s="71"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
         <v>57</v>
       </c>
@@ -15863,7 +15341,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A29" s="27" t="s">
         <v>59</v>
       </c>
@@ -15930,7 +15408,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>59</v>
       </c>
@@ -15993,7 +15471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A31" s="37" t="s">
         <v>61</v>
       </c>
@@ -16034,7 +15512,7 @@
         <v>1.0719631435652426</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
         <v>63</v>
       </c>
@@ -16075,7 +15553,7 @@
         <v>0.14300965555999312</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
         <v>65</v>
       </c>
@@ -16116,7 +15594,7 @@
         <v>0.23472348232774673</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>67</v>
       </c>
@@ -16157,7 +15635,7 @@
         <v>0.12185372689751366</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>69</v>
       </c>
@@ -16195,7 +15673,7 @@
         <v>1.7072036368123513E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>71</v>
       </c>
@@ -16236,12 +15714,12 @@
         <v>0.13150013719919612</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>55</v>
@@ -16303,12 +15781,12 @@
         <v>-1.5110908092712578</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>55</v>
@@ -16370,7 +15848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
         <v>75</v>
       </c>
@@ -16409,7 +15887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
         <v>77</v>
       </c>
@@ -16476,7 +15954,7 @@
         <v>0.13882633384865234</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
         <v>77</v>
       </c>
@@ -16543,7 +16021,7 @@
         <v>1.6848751217112248</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>79</v>
       </c>
@@ -16584,7 +16062,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
@@ -16651,7 +16129,7 @@
         <v>0.20530831293741467</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
         <v>83</v>
       </c>
@@ -16692,7 +16170,7 @@
         <v>1.2772714565026573</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="25" t="s">
         <v>85</v>
       </c>
@@ -16759,7 +16237,7 @@
         <v>0.86665483062782789</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="40" t="s">
         <v>87</v>
       </c>
@@ -16796,7 +16274,7 @@
         <v>0.29372433921874108</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>87</v>
       </c>
@@ -16833,7 +16311,7 @@
         <v>0.21315252509112434</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>90</v>
       </c>
@@ -16896,7 +16374,7 @@
         <v>0.83231832885064927</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
         <v>90</v>
       </c>
@@ -16959,7 +16437,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="25" t="s">
         <v>94</v>
       </c>
@@ -17015,7 +16493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
         <v>97</v>
       </c>
@@ -17051,7 +16529,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="50"/>
       <c r="B52" s="51"/>
       <c r="T52" s="85">
@@ -17063,7 +16541,7 @@
         <v>1.0719631435652426</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="50"/>
       <c r="B53" s="51"/>
       <c r="T53" s="86">
@@ -17075,15 +16553,15 @@
         <v>-0.71354429063188651</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A54" s="50"/>
       <c r="B54" s="51"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="50"/>
       <c r="B55" s="51"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>110</v>
       </c>
@@ -17128,7 +16606,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A57" s="52" t="s">
         <v>111</v>
       </c>
@@ -17162,12 +16640,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="135" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B58" s="128" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C58" s="127" t="s">
         <v>112</v>
@@ -17194,7 +16672,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
         <v>115</v>
       </c>
@@ -17256,7 +16734,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A60" s="57" t="s">
         <v>115</v>
       </c>
@@ -17312,7 +16790,7 @@
       </c>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" s="57" t="s">
         <v>115</v>
       </c>
@@ -17372,7 +16850,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
         <v>118</v>
       </c>
@@ -17434,7 +16912,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A63" s="136" t="s">
         <v>118</v>
       </c>
@@ -17490,12 +16968,12 @@
       </c>
       <c r="Z63" s="7"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A64" s="137" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B64" s="129" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C64" s="127" t="s">
         <v>6</v>
@@ -17523,7 +17001,7 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A65" s="138" t="s">
         <v>121</v>
       </c>
@@ -17557,7 +17035,7 @@
       </c>
       <c r="Z65" s="7"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A66" s="139" t="s">
         <v>123</v>
       </c>
@@ -17593,7 +17071,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
         <v>125</v>
       </c>
@@ -17651,7 +17129,7 @@
       </c>
       <c r="Z67" s="7"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A68" s="57" t="s">
         <v>125</v>
       </c>
@@ -17705,7 +17183,7 @@
       </c>
       <c r="Z68" s="7"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A69" s="140" t="s">
         <v>127</v>
       </c>
@@ -17741,7 +17219,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A70" s="139" t="s">
         <v>129</v>
       </c>
@@ -17777,12 +17255,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A71" s="141" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B71" s="132" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C71" s="133" t="s">
         <v>6</v>
@@ -17809,7 +17287,7 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A72" s="135" t="s">
         <v>131</v>
       </c>
@@ -17865,7 +17343,7 @@
         <v>0.38021124171160603</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
         <v>134</v>
       </c>
@@ -17947,7 +17425,7 @@
         <v>0.94448267215016868</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A74" s="27" t="s">
         <v>134</v>
       </c>
@@ -18025,7 +17503,7 @@
         <v>1.0086001717619175</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A75" s="27" t="s">
         <v>137</v>
       </c>
@@ -18107,7 +17585,7 @@
         <v>0.94914595241994382</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A76" s="27" t="s">
         <v>139</v>
       </c>
@@ -18189,7 +17667,7 @@
         <v>0.97954837470409506</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A77" s="27" t="s">
         <v>139</v>
       </c>
@@ -18245,7 +17723,7 @@
       </c>
       <c r="Z77" s="7"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A78" s="14" t="s">
         <v>141</v>
       </c>
@@ -18305,7 +17783,7 @@
       </c>
       <c r="Z78" s="7"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A79" s="27" t="s">
         <v>144</v>
       </c>
@@ -18367,7 +17845,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A80" s="55" t="s">
         <v>146</v>
       </c>
@@ -18403,7 +17881,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A81" s="27" t="s">
         <v>148</v>
       </c>
@@ -18465,7 +17943,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A82" s="27" t="s">
         <v>148</v>
       </c>
@@ -18523,7 +18001,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A83" s="27" t="s">
         <v>148</v>
       </c>
@@ -18585,7 +18063,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A84" s="14" t="s">
         <v>151</v>
       </c>
@@ -18608,7 +18086,7 @@
         <v>114</v>
       </c>
       <c r="I84" s="39" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J84" s="69">
         <v>53.75</v>
@@ -18641,7 +18119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A85" s="14" t="s">
         <v>153</v>
       </c>
@@ -18697,7 +18175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A86" s="57" t="s">
         <v>157</v>
       </c>
@@ -18753,7 +18231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A87" s="144" t="s">
         <v>160</v>
       </c>
@@ -18785,7 +18263,7 @@
       <c r="Q87" s="149"/>
       <c r="R87" s="149"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A88" s="57" t="s">
         <v>166</v>
       </c>
@@ -18841,7 +18319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A89" s="14" t="s">
         <v>169</v>
       </c>
@@ -18898,7 +18376,7 @@
       </c>
       <c r="S89" s="89"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A90" s="57" t="s">
         <v>163</v>
       </c>
@@ -18955,12 +18433,12 @@
       </c>
       <c r="S90" s="89"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A91" s="145" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B91" s="142" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C91" s="126" t="s">
         <v>165</v>
@@ -18989,9 +18467,9 @@
       <c r="R91" s="149"/>
       <c r="S91" s="89"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A92" s="145" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B92" s="142" t="s">
         <v>98</v>
@@ -19023,12 +18501,12 @@
       <c r="R92" s="149"/>
       <c r="S92" s="89"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A93" s="145" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B93" s="142" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C93" s="126" t="s">
         <v>165</v>
@@ -19057,12 +18535,12 @@
       <c r="R93" s="149"/>
       <c r="S93" s="89"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A94" s="136" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B94" s="164" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C94" s="131" t="s">
         <v>165</v>
@@ -19080,7 +18558,7 @@
         <v>114</v>
       </c>
       <c r="I94" s="39" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="J94" s="69">
         <v>309</v>
@@ -19114,7 +18592,7 @@
       </c>
       <c r="S94" s="89"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A95" s="150" t="s">
         <v>171</v>
       </c>
@@ -19150,7 +18628,7 @@
       <c r="R95" s="149"/>
       <c r="S95" s="89"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A96" s="144" t="s">
         <v>174</v>
       </c>
@@ -19182,7 +18660,7 @@
       <c r="Q96" s="149"/>
       <c r="R96" s="149"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A97" s="146" t="s">
         <v>176</v>
       </c>
@@ -19214,7 +18692,7 @@
       <c r="Q97" s="149"/>
       <c r="R97" s="149"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A98" s="14" t="s">
         <v>178</v>
       </c>
@@ -19270,7 +18748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A99" s="25" t="s">
         <v>182</v>
       </c>
@@ -19326,7 +18804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A100" s="59" t="s">
         <v>182</v>
       </c>
@@ -19379,7 +18857,7 @@
       </c>
       <c r="R100" s="149"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
         <v>185</v>
       </c>
@@ -19435,7 +18913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
         <v>185</v>
       </c>
@@ -19458,7 +18936,7 @@
         <v>114</v>
       </c>
       <c r="I102" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J102" s="69">
         <v>278</v>
@@ -19491,7 +18969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
         <v>185</v>
       </c>
@@ -19514,7 +18992,7 @@
         <v>114</v>
       </c>
       <c r="I103" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J103" s="69">
         <v>71.5</v>
@@ -19547,7 +19025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
         <v>185</v>
       </c>
@@ -19570,7 +19048,7 @@
         <v>114</v>
       </c>
       <c r="I104" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J104" s="69">
         <v>176</v>
@@ -19603,7 +19081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A105" s="30" t="s">
         <v>190</v>
       </c>
@@ -19633,7 +19111,7 @@
       <c r="O105" s="88"/>
       <c r="P105" s="71"/>
     </row>
-    <row r="106" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="57" t="s">
         <v>193</v>
       </c>
@@ -19657,7 +19135,7 @@
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J106" s="69">
         <v>247</v>
@@ -19703,7 +19181,7 @@
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
     </row>
-    <row r="107" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
         <v>195</v>
       </c>
@@ -19727,7 +19205,7 @@
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J107" s="69">
         <v>314</v>
@@ -19773,7 +19251,7 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="57" t="s">
         <v>171</v>
       </c>
@@ -19811,7 +19289,7 @@
       <c r="R113" s="125"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J114" s="69">
         <v>17</v>
       </c>
@@ -19849,38 +19327,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" style="1"/>
-    <col min="17" max="18" width="3.140625" style="64" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="64" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="8.83203125" style="1"/>
+    <col min="17" max="18" width="3.1640625" style="64" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" style="64" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="8.83203125" style="1"/>
+    <col min="25" max="25" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="32" max="32" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="143" t="s">
         <v>6</v>
       </c>
@@ -19891,7 +19369,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -19945,7 +19423,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -19992,7 +19470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -20037,7 +19515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -20110,7 +19588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -20155,7 +19633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -20226,7 +19704,7 @@
       </c>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
@@ -20273,7 +19751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -20320,7 +19798,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
@@ -20393,7 +19871,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
@@ -20440,7 +19918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>27</v>
       </c>
@@ -20511,7 +19989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="77" t="s">
         <v>29</v>
       </c>
@@ -20582,7 +20060,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>31</v>
       </c>
@@ -20653,7 +20131,7 @@
       </c>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
@@ -20703,12 +20181,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>6</v>
@@ -20750,7 +20228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
         <v>35</v>
       </c>
@@ -20817,7 +20295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>36</v>
       </c>
@@ -20856,7 +20334,7 @@
         <v>0.81928585998768821</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>37</v>
       </c>
@@ -20893,7 +20371,7 @@
         <v>0.30307488202073896</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>40</v>
       </c>
@@ -20930,7 +20408,7 @@
         <v>0.61013057046873476</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
         <v>42</v>
       </c>
@@ -20993,7 +20471,7 @@
         <v>1.4913616938342726</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
         <v>44</v>
       </c>
@@ -21062,7 +20540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
         <v>46</v>
       </c>
@@ -21098,7 +20576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
@@ -21140,7 +20618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>50</v>
       </c>
@@ -21184,7 +20662,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>52</v>
       </c>
@@ -21246,7 +20724,7 @@
         <v>1.2922560713564761</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>53</v>
       </c>
@@ -21291,7 +20769,7 @@
       <c r="AE27" s="70"/>
       <c r="AF27" s="71"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
         <v>57</v>
       </c>
@@ -21329,7 +20807,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A29" s="27" t="s">
         <v>59</v>
       </c>
@@ -21396,7 +20874,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>59</v>
       </c>
@@ -21440,7 +20918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A31" s="37" t="s">
         <v>61</v>
       </c>
@@ -21481,7 +20959,7 @@
         <v>1.0454381442747218</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
         <v>63</v>
       </c>
@@ -21522,7 +21000,7 @@
         <v>0.14920759600976813</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
         <v>65</v>
       </c>
@@ -21563,7 +21041,7 @@
         <v>0.24328963681774665</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>67</v>
       </c>
@@ -21604,7 +21082,7 @@
         <v>0.12788022893941894</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>69</v>
       </c>
@@ -21642,7 +21120,7 @@
         <v>1.8041928607028211E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>71</v>
       </c>
@@ -21683,12 +21161,12 @@
         <v>0.13911842511776765</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>55</v>
@@ -21715,7 +21193,7 @@
         <v>58.84</v>
       </c>
       <c r="L37" s="69">
-        <f t="shared" ref="L37:L38" si="5">LOG10(K37)</f>
+        <f t="shared" ref="L37" si="5">LOG10(K37)</f>
         <v>1.7696726640554925</v>
       </c>
       <c r="M37" s="70">
@@ -21750,12 +21228,12 @@
         <v>-0.8625978453706199</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>55</v>
@@ -21794,7 +21272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
         <v>75</v>
       </c>
@@ -21833,7 +21311,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
         <v>77</v>
       </c>
@@ -21865,7 +21343,7 @@
         <v>554.84</v>
       </c>
       <c r="L40" s="69">
-        <f t="shared" ref="L40:L41" si="6">LOG10(K40)</f>
+        <f t="shared" ref="L40" si="6">LOG10(K40)</f>
         <v>2.7441677630592691</v>
       </c>
       <c r="M40" s="70">
@@ -21900,7 +21378,7 @@
         <v>0.39440241284201161</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
         <v>77</v>
       </c>
@@ -21944,7 +21422,7 @@
         <v>1.6909242551868542</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>79</v>
       </c>
@@ -21985,7 +21463,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
@@ -22052,7 +21530,7 @@
         <v>0.21623578087251139</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
         <v>83</v>
       </c>
@@ -22093,7 +21571,7 @@
         <v>1.2616739251472331</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="25" t="s">
         <v>85</v>
       </c>
@@ -22160,7 +21638,7 @@
         <v>0.82920236340221043</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="40" t="s">
         <v>87</v>
       </c>
@@ -22197,7 +21675,7 @@
         <v>0.31067999718808575</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>87</v>
       </c>
@@ -22234,7 +21712,7 @@
         <v>0.22255869509181611</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>90</v>
       </c>
@@ -22297,7 +21775,7 @@
         <v>0.82521057817464505</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
         <v>90</v>
       </c>
@@ -22337,7 +21815,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="25" t="s">
         <v>94</v>
       </c>
@@ -22393,7 +21871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
         <v>97</v>
       </c>
@@ -22429,7 +21907,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="50"/>
       <c r="B52" s="51"/>
       <c r="T52" s="85">
@@ -22441,7 +21919,7 @@
         <v>1.0454381442747218</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="50"/>
       <c r="B53" s="51"/>
       <c r="T53" s="86">
@@ -22453,15 +21931,15 @@
         <v>-0.64154340271370192</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A54" s="50"/>
       <c r="B54" s="51"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="50"/>
       <c r="B55" s="51"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>110</v>
       </c>
@@ -22506,7 +21984,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A57" s="52" t="s">
         <v>111</v>
       </c>
@@ -22540,12 +22018,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="135" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B58" s="128" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C58" s="127" t="s">
         <v>112</v>
@@ -22572,7 +22050,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
         <v>115</v>
       </c>
@@ -22634,7 +22112,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A60" s="57" t="s">
         <v>115</v>
       </c>
@@ -22671,7 +22149,7 @@
       </c>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" s="57" t="s">
         <v>115</v>
       </c>
@@ -22708,7 +22186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
         <v>118</v>
       </c>
@@ -22740,7 +22218,7 @@
         <v>128.5</v>
       </c>
       <c r="L62" s="69">
-        <f t="shared" ref="L61:L62" si="11">LOG10(K62)</f>
+        <f t="shared" ref="L62" si="11">LOG10(K62)</f>
         <v>2.1089031276673134</v>
       </c>
       <c r="M62" s="70">
@@ -22770,7 +22248,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A63" s="136" t="s">
         <v>118</v>
       </c>
@@ -22807,12 +22285,12 @@
       </c>
       <c r="Z63" s="7"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A64" s="137" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B64" s="129" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C64" s="127" t="s">
         <v>6</v>
@@ -22840,7 +22318,7 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A65" s="138" t="s">
         <v>121</v>
       </c>
@@ -22874,7 +22352,7 @@
       </c>
       <c r="Z65" s="7"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A66" s="139" t="s">
         <v>123</v>
       </c>
@@ -22910,7 +22388,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
         <v>125</v>
       </c>
@@ -22968,7 +22446,7 @@
       </c>
       <c r="Z67" s="7"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A68" s="57" t="s">
         <v>125</v>
       </c>
@@ -23003,7 +22481,7 @@
       </c>
       <c r="Z68" s="7"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A69" s="140" t="s">
         <v>127</v>
       </c>
@@ -23039,7 +22517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A70" s="139" t="s">
         <v>129</v>
       </c>
@@ -23075,12 +22553,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A71" s="141" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B71" s="132" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C71" s="133" t="s">
         <v>6</v>
@@ -23107,7 +22585,7 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A72" s="135" t="s">
         <v>131</v>
       </c>
@@ -23163,7 +22641,7 @@
         <v>0.38021124171160603</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
         <v>134</v>
       </c>
@@ -23245,7 +22723,7 @@
         <v>0.94448267215016868</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A74" s="27" t="s">
         <v>134</v>
       </c>
@@ -23304,7 +22782,7 @@
         <v>1.0086001717619175</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A75" s="27" t="s">
         <v>137</v>
       </c>
@@ -23386,7 +22864,7 @@
         <v>0.94914595241994382</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A76" s="27" t="s">
         <v>139</v>
       </c>
@@ -23468,7 +22946,7 @@
         <v>0.97954837470409506</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A77" s="27" t="s">
         <v>139</v>
       </c>
@@ -23505,7 +22983,7 @@
       </c>
       <c r="Z77" s="7"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A78" s="14" t="s">
         <v>141</v>
       </c>
@@ -23565,7 +23043,7 @@
       </c>
       <c r="Z78" s="7"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A79" s="27" t="s">
         <v>144</v>
       </c>
@@ -23627,7 +23105,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A80" s="55" t="s">
         <v>146</v>
       </c>
@@ -23663,7 +23141,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A81" s="27" t="s">
         <v>148</v>
       </c>
@@ -23725,7 +23203,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A82" s="27" t="s">
         <v>148</v>
       </c>
@@ -23764,7 +23242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A83" s="27" t="s">
         <v>148</v>
       </c>
@@ -23803,7 +23281,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A84" s="14" t="s">
         <v>151</v>
       </c>
@@ -23826,7 +23304,7 @@
         <v>114</v>
       </c>
       <c r="I84" s="39" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J84" s="69">
         <v>53.75</v>
@@ -23835,7 +23313,7 @@
         <v>40.94</v>
       </c>
       <c r="L84" s="69">
-        <f t="shared" ref="L83:L89" si="23">LOG10(K84)</f>
+        <f t="shared" ref="L84:L89" si="23">LOG10(K84)</f>
         <v>1.6121478383264869</v>
       </c>
       <c r="M84" s="70">
@@ -23859,7 +23337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A85" s="14" t="s">
         <v>153</v>
       </c>
@@ -23915,7 +23393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A86" s="57" t="s">
         <v>157</v>
       </c>
@@ -23971,7 +23449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A87" s="144" t="s">
         <v>160</v>
       </c>
@@ -24003,7 +23481,7 @@
       <c r="Q87" s="149"/>
       <c r="R87" s="149"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A88" s="57" t="s">
         <v>166</v>
       </c>
@@ -24059,7 +23537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A89" s="14" t="s">
         <v>169</v>
       </c>
@@ -24116,7 +23594,7 @@
       </c>
       <c r="S89" s="89"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A90" s="57" t="s">
         <v>163</v>
       </c>
@@ -24173,12 +23651,12 @@
       </c>
       <c r="S90" s="89"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A91" s="145" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B91" s="142" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C91" s="126" t="s">
         <v>165</v>
@@ -24207,9 +23685,9 @@
       <c r="R91" s="149"/>
       <c r="S91" s="89"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A92" s="145" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B92" s="142" t="s">
         <v>98</v>
@@ -24241,12 +23719,12 @@
       <c r="R92" s="149"/>
       <c r="S92" s="89"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A93" s="145" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B93" s="142" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C93" s="126" t="s">
         <v>165</v>
@@ -24275,12 +23753,12 @@
       <c r="R93" s="149"/>
       <c r="S93" s="89"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A94" s="136" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B94" s="164" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C94" s="131" t="s">
         <v>165</v>
@@ -24298,7 +23776,7 @@
         <v>114</v>
       </c>
       <c r="I94" s="39" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="J94" s="69">
         <v>309</v>
@@ -24332,7 +23810,7 @@
       </c>
       <c r="S94" s="89"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A95" s="150" t="s">
         <v>171</v>
       </c>
@@ -24368,7 +23846,7 @@
       <c r="R95" s="149"/>
       <c r="S95" s="89"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A96" s="144" t="s">
         <v>174</v>
       </c>
@@ -24400,7 +23878,7 @@
       <c r="Q96" s="149"/>
       <c r="R96" s="149"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A97" s="146" t="s">
         <v>176</v>
       </c>
@@ -24432,7 +23910,7 @@
       <c r="Q97" s="149"/>
       <c r="R97" s="149"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A98" s="14" t="s">
         <v>178</v>
       </c>
@@ -24488,7 +23966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A99" s="25" t="s">
         <v>182</v>
       </c>
@@ -24544,7 +24022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A100" s="59" t="s">
         <v>182</v>
       </c>
@@ -24579,7 +24057,7 @@
       <c r="Q100" s="149"/>
       <c r="R100" s="149"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
         <v>185</v>
       </c>
@@ -24635,7 +24113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
         <v>185</v>
       </c>
@@ -24658,7 +24136,7 @@
         <v>114</v>
       </c>
       <c r="I102" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J102" s="69">
         <v>278</v>
@@ -24691,7 +24169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
         <v>185</v>
       </c>
@@ -24714,7 +24192,7 @@
         <v>114</v>
       </c>
       <c r="I103" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J103" s="69">
         <v>71.5</v>
@@ -24747,7 +24225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
         <v>185</v>
       </c>
@@ -24770,7 +24248,7 @@
         <v>114</v>
       </c>
       <c r="I104" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J104" s="69">
         <v>176</v>
@@ -24803,7 +24281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A105" s="30" t="s">
         <v>190</v>
       </c>
@@ -24833,7 +24311,7 @@
       <c r="O105" s="88"/>
       <c r="P105" s="71"/>
     </row>
-    <row r="106" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="57" t="s">
         <v>193</v>
       </c>
@@ -24857,7 +24335,7 @@
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J106" s="69">
         <v>247</v>
@@ -24903,7 +24381,7 @@
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
     </row>
-    <row r="107" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
         <v>195</v>
       </c>
@@ -24927,7 +24405,7 @@
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="39" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J107" s="69">
         <v>314</v>
@@ -24973,7 +24451,7 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="57" t="s">
         <v>171</v>
       </c>
@@ -25011,7 +24489,7 @@
       <c r="R113" s="125"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J114" s="69">
         <v>17</v>
       </c>
